--- a/Classification Comparison.xlsx
+++ b/Classification Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82946c1d38922a58/YOGA上我的文档/课程资料/我的大三下/暑期 UCInspire/neurological-status-detection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的资料\我的文档\课程资料\我的大四上\毕业设计\neurological-status-detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{2D2039A2-23D8-4E80-A79D-CBD92970E1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69A58C7C-2B6C-4803-9BA9-C864F8034894}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E7FCA8-2E8A-4C32-B3FE-52C9942A0F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30450" yWindow="1785" windowWidth="14400" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Classifiers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>w PCA (5 features)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -611,6 +615,11 @@
         <v>800</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
